--- a/Intervalo_AOD/Intervalo_datos/Min_Max_tablas/media/resultado_media_IQCA_media.xlsx
+++ b/Intervalo_AOD/Intervalo_datos/Min_Max_tablas/media/resultado_media_IQCA_media.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisse\OneDrive\Escritorio\Repositorio\Documentos\Intervalo_AOD\Intervalo_datos\mean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gisse\OneDrive\Escritorio\Repositorio\Documentos\Intervalo_AOD\Intervalo_datos\Min_Max_tablas\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2B9E0E-E7F1-464C-844F-F051BC9BBCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822DDABA-57DA-49F1-9847-05FD143F1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>diciembre_febrero</t>
   </si>
@@ -314,28 +314,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -345,20 +345,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF49"/>
+  <dimension ref="A1:BG67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="23"/>
@@ -719,8 +722,8 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="23"/>
@@ -735,8 +738,8 @@
       <c r="AA1" s="23"/>
       <c r="AB1" s="23"/>
       <c r="AC1" s="23"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="18" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="AF1" s="23"/>
@@ -751,8 +754,8 @@
       <c r="AO1" s="23"/>
       <c r="AP1" s="23"/>
       <c r="AQ1" s="23"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="18" t="s">
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="AT1" s="23"/>
@@ -767,189 +770,189 @@
       <c r="BC1" s="23"/>
       <c r="BD1" s="23"/>
       <c r="BE1" s="23"/>
-      <c r="BF1" s="17"/>
+      <c r="BF1" s="21"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="26"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="27"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="28"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="23"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="16" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="23"/>
-      <c r="U2" s="25"/>
+      <c r="U2" s="31"/>
       <c r="V2" s="23"/>
-      <c r="W2" s="26"/>
+      <c r="W2" s="32"/>
       <c r="X2" s="23"/>
-      <c r="Y2" s="27"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="23"/>
-      <c r="AA2" s="28"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="23"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="16" t="s">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="AF2" s="23"/>
-      <c r="AG2" s="24"/>
+      <c r="AG2" s="30"/>
       <c r="AH2" s="23"/>
-      <c r="AI2" s="25"/>
+      <c r="AI2" s="31"/>
       <c r="AJ2" s="23"/>
-      <c r="AK2" s="26"/>
+      <c r="AK2" s="32"/>
       <c r="AL2" s="23"/>
-      <c r="AM2" s="27"/>
+      <c r="AM2" s="33"/>
       <c r="AN2" s="23"/>
-      <c r="AO2" s="28"/>
+      <c r="AO2" s="34"/>
       <c r="AP2" s="23"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="16" t="s">
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="AT2" s="23"/>
-      <c r="AU2" s="24"/>
+      <c r="AU2" s="30"/>
       <c r="AV2" s="23"/>
-      <c r="AW2" s="25"/>
+      <c r="AW2" s="31"/>
       <c r="AX2" s="23"/>
-      <c r="AY2" s="26"/>
+      <c r="AY2" s="32"/>
       <c r="AZ2" s="23"/>
-      <c r="BA2" s="27"/>
+      <c r="BA2" s="33"/>
       <c r="BB2" s="23"/>
-      <c r="BC2" s="28"/>
+      <c r="BC2" s="34"/>
       <c r="BD2" s="23"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="17"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="21"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="22" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="32" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="33" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="21"/>
+      <c r="S3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="31" t="s">
+      <c r="T3" s="21"/>
+      <c r="U3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="30" t="s">
+      <c r="V3" s="21"/>
+      <c r="W3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="22" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="33" t="s">
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="16" t="s">
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="21" t="s">
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="31" t="s">
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="30" t="s">
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="22" t="s">
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="32" t="s">
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="33" t="s">
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="21" t="s">
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="31" t="s">
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="30" t="s">
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="22" t="s">
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="32" t="s">
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="33" t="s">
+      <c r="BD3" s="21"/>
+      <c r="BE3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="BF3" s="17"/>
+      <c r="BF3" s="21"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1161,7 +1164,7 @@
       <c r="BE5" s="15"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1237,7 +1240,7 @@
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1314,7 @@
       <c r="BE7" s="15"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1393,7 @@
       <c r="BE8" s="15"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="BE9" s="15"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1536,7 @@
       <c r="BE10" s="15"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="BE11" s="15"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="BE12" s="15"/>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1740,8 +1743,8 @@
       <c r="BE13" s="15"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="9">
@@ -1809,466 +1812,286 @@
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="38">
+      <c r="C15" s="19">
         <f>+MAX(C6:C14)</f>
         <v>0.85299999999999998</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="19">
         <f>+MIN(D6:D14)</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="19">
         <f t="shared" ref="E15" si="0">+MAX(E6:E14)</f>
         <v>0.495</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="19">
         <f t="shared" ref="F15" si="1">+MIN(F6:F14)</f>
         <v>0.18</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="19">
         <f t="shared" ref="G15" si="2">+MAX(G6:G14)</f>
         <v>0.16</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="19">
         <f t="shared" ref="H15" si="3">+MIN(H6:H14)</f>
         <v>0.16</v>
       </c>
-      <c r="I15" s="38">
-        <f t="shared" ref="I15" si="4">+MAX(I6:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="38">
-        <f t="shared" ref="J15" si="5">+MIN(J6:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="38">
-        <f t="shared" ref="K15" si="6">+MAX(K6:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="38">
-        <f t="shared" ref="L15" si="7">+MIN(L6:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="38">
-        <f t="shared" ref="M15" si="8">+MAX(M6:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="38">
-        <f t="shared" ref="N15" si="9">+MIN(N6:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="38">
-        <f t="shared" ref="O15" si="10">+MAX(O6:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="38">
-        <f t="shared" ref="P15" si="11">+MIN(P6:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="38">
-        <f t="shared" ref="Q15" si="12">+MAX(Q6:Q14)</f>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19">
+        <f t="shared" ref="Q15" si="4">+MAX(Q6:Q14)</f>
         <v>1.319</v>
       </c>
-      <c r="R15" s="38">
-        <f t="shared" ref="R15" si="13">+MIN(R6:R14)</f>
+      <c r="R15" s="19">
+        <f t="shared" ref="R15" si="5">+MIN(R6:R14)</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="S15" s="38">
-        <f t="shared" ref="S15" si="14">+MAX(S6:S14)</f>
+      <c r="S15" s="19">
+        <f t="shared" ref="S15" si="6">+MAX(S6:S14)</f>
         <v>0.58199999999999996</v>
       </c>
-      <c r="T15" s="38">
-        <f t="shared" ref="T15" si="15">+MIN(T6:T14)</f>
+      <c r="T15" s="19">
+        <f t="shared" ref="T15" si="7">+MIN(T6:T14)</f>
         <v>0.252</v>
       </c>
-      <c r="U15" s="38">
-        <f t="shared" ref="U15" si="16">+MAX(U6:U14)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="38">
-        <f t="shared" ref="V15" si="17">+MIN(V6:V14)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="38">
-        <f t="shared" ref="W15" si="18">+MAX(W6:W14)</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="38">
-        <f t="shared" ref="X15" si="19">+MIN(X6:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="38">
-        <f t="shared" ref="Y15" si="20">+MAX(Y6:Y14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="38">
-        <f t="shared" ref="Z15" si="21">+MIN(Z6:Z14)</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="38">
-        <f t="shared" ref="AA15" si="22">+MAX(AA6:AA14)</f>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="38">
-        <f t="shared" ref="AB15" si="23">+MIN(AB6:AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="38">
-        <f t="shared" ref="AC15" si="24">+MAX(AC6:AC14)</f>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19">
+        <f t="shared" ref="AC15" si="8">+MAX(AC6:AC14)</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="AD15" s="38">
-        <f t="shared" ref="AD15" si="25">+MIN(AD6:AD14)</f>
+      <c r="AD15" s="19">
+        <f t="shared" ref="AD15" si="9">+MIN(AD6:AD14)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="AE15" s="38">
-        <f t="shared" ref="AE15" si="26">+MAX(AE6:AE14)</f>
+      <c r="AE15" s="19">
+        <f t="shared" ref="AE15" si="10">+MAX(AE6:AE14)</f>
         <v>0.58099999999999996</v>
       </c>
-      <c r="AF15" s="38">
-        <f t="shared" ref="AF15" si="27">+MIN(AF6:AF14)</f>
+      <c r="AF15" s="19">
+        <f t="shared" ref="AF15" si="11">+MIN(AF6:AF14)</f>
         <v>1.4E-2</v>
       </c>
-      <c r="AG15" s="38">
-        <f t="shared" ref="AG15" si="28">+MAX(AG6:AG14)</f>
+      <c r="AG15" s="19">
+        <f t="shared" ref="AG15" si="12">+MAX(AG6:AG14)</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="AH15" s="38">
-        <f t="shared" ref="AH15" si="29">+MIN(AH6:AH14)</f>
+      <c r="AH15" s="19">
+        <f t="shared" ref="AH15" si="13">+MIN(AH6:AH14)</f>
         <v>0.111</v>
       </c>
-      <c r="AI15" s="38">
-        <f t="shared" ref="AI15" si="30">+MAX(AI6:AI14)</f>
+      <c r="AI15" s="19">
+        <f t="shared" ref="AI15" si="14">+MAX(AI6:AI14)</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="AJ15" s="38">
-        <f t="shared" ref="AJ15" si="31">+MIN(AJ6:AJ14)</f>
+      <c r="AJ15" s="19">
+        <f t="shared" ref="AJ15" si="15">+MIN(AJ6:AJ14)</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="AK15" s="38">
-        <f t="shared" ref="AK15" si="32">+MAX(AK6:AK14)</f>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="38">
-        <f t="shared" ref="AL15" si="33">+MIN(AL6:AL14)</f>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="38">
-        <f t="shared" ref="AM15" si="34">+MAX(AM6:AM14)</f>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="38">
-        <f t="shared" ref="AN15" si="35">+MIN(AN6:AN14)</f>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="38">
-        <f t="shared" ref="AO15" si="36">+MAX(AO6:AO14)</f>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="38">
-        <f t="shared" ref="AP15" si="37">+MIN(AP6:AP14)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="38">
-        <f t="shared" ref="AQ15" si="38">+MAX(AQ6:AQ14)</f>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19">
+        <f t="shared" ref="AQ15" si="16">+MAX(AQ6:AQ14)</f>
         <v>0.46800000000000003</v>
       </c>
-      <c r="AR15" s="38">
-        <f t="shared" ref="AR15" si="39">+MIN(AR6:AR14)</f>
+      <c r="AR15" s="19">
+        <f t="shared" ref="AR15" si="17">+MIN(AR6:AR14)</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AS15" s="38">
-        <f t="shared" ref="AS15" si="40">+MAX(AS6:AS14)</f>
+      <c r="AS15" s="19">
+        <f t="shared" ref="AS15" si="18">+MAX(AS6:AS14)</f>
         <v>0.60799999999999998</v>
       </c>
-      <c r="AT15" s="38">
-        <f t="shared" ref="AT15" si="41">+MIN(AT6:AT14)</f>
+      <c r="AT15" s="19">
+        <f t="shared" ref="AT15" si="19">+MIN(AT6:AT14)</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="AU15" s="38">
-        <f t="shared" ref="AU15" si="42">+MAX(AU6:AU14)</f>
+      <c r="AU15" s="19">
+        <f t="shared" ref="AU15" si="20">+MAX(AU6:AU14)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV15" s="38">
-        <f t="shared" ref="AV15" si="43">+MIN(AV6:AV14)</f>
+      <c r="AV15" s="19">
+        <f t="shared" ref="AV15" si="21">+MIN(AV6:AV14)</f>
         <v>0.111</v>
       </c>
-      <c r="AW15" s="38">
-        <f t="shared" ref="AW15" si="44">+MAX(AW6:AW14)</f>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="38">
-        <f t="shared" ref="AX15" si="45">+MIN(AX6:AX14)</f>
-        <v>0</v>
-      </c>
-      <c r="AY15" s="38">
-        <f t="shared" ref="AY15" si="46">+MAX(AY6:AY14)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="38">
-        <f t="shared" ref="AZ15" si="47">+MIN(AZ6:AZ14)</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="38">
-        <f t="shared" ref="BA15" si="48">+MAX(BA6:BA14)</f>
-        <v>0</v>
-      </c>
-      <c r="BB15" s="38">
-        <f t="shared" ref="BB15" si="49">+MIN(BB6:BB14)</f>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="38">
-        <f t="shared" ref="BC15" si="50">+MAX(BC6:BC14)</f>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="38">
-        <f t="shared" ref="BD15" si="51">+MIN(BD6:BD14)</f>
-        <v>0</v>
-      </c>
-      <c r="BE15" s="38">
-        <f t="shared" ref="BE15" si="52">+MAX(BE6:BE14)</f>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="19">
+        <f t="shared" ref="BE15" si="22">+MAX(BE6:BE14)</f>
         <v>0.42199999999999999</v>
       </c>
-      <c r="BF15" s="38">
-        <f t="shared" ref="BF15" si="53">+MIN(BF6:BF14)</f>
+      <c r="BF15" s="19">
+        <f t="shared" ref="BF15" si="23">+MIN(BF6:BF14)</f>
         <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="38">
+      <c r="C16" s="19">
         <f>+MIN(C6:C14)</f>
         <v>0.53400000000000003</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="19">
         <f>+MAX(D6:D14)</f>
         <v>0.20699999999999999</v>
       </c>
-      <c r="E16" s="38">
-        <f t="shared" ref="E16:AJ16" si="54">+MIN(E6:E14)</f>
+      <c r="E16" s="19">
+        <f t="shared" ref="E16" si="24">+MIN(E6:E14)</f>
         <v>0.18</v>
       </c>
-      <c r="F16" s="38">
-        <f t="shared" ref="F16:AK16" si="55">+MAX(F6:F14)</f>
+      <c r="F16" s="19">
+        <f t="shared" ref="F16" si="25">+MAX(F6:F14)</f>
         <v>0.495</v>
       </c>
-      <c r="G16" s="38">
-        <f t="shared" ref="G16:AL16" si="56">+MIN(G6:G14)</f>
+      <c r="G16" s="19">
+        <f t="shared" ref="G16" si="26">+MIN(G6:G14)</f>
         <v>0.16</v>
       </c>
-      <c r="H16" s="38">
-        <f t="shared" ref="H16:AM16" si="57">+MAX(H6:H14)</f>
+      <c r="H16" s="19">
+        <f t="shared" ref="H16" si="27">+MAX(H6:H14)</f>
         <v>0.16</v>
       </c>
-      <c r="I16" s="38">
-        <f t="shared" ref="I16:AN16" si="58">+MIN(I6:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="38">
-        <f t="shared" ref="J16:AO16" si="59">+MAX(J6:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="38">
-        <f t="shared" ref="K16:BF16" si="60">+MIN(K6:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="38">
-        <f t="shared" ref="L16:BF16" si="61">+MAX(L6:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="38">
-        <f t="shared" ref="M16:BF16" si="62">+MIN(M6:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="38">
-        <f t="shared" ref="N16:BF16" si="63">+MAX(N6:N14)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="38">
-        <f t="shared" ref="O16:BF16" si="64">+MIN(O6:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="38">
-        <f t="shared" ref="P16:BF16" si="65">+MAX(P6:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="38">
-        <f t="shared" ref="Q16:BF16" si="66">+MIN(Q6:Q14)</f>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19">
+        <f t="shared" ref="Q16" si="28">+MIN(Q6:Q14)</f>
         <v>0.56100000000000005</v>
       </c>
-      <c r="R16" s="38">
-        <f t="shared" ref="R16:BF16" si="67">+MAX(R6:R14)</f>
+      <c r="R16" s="19">
+        <f t="shared" ref="R16" si="29">+MAX(R6:R14)</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="S16" s="38">
-        <f t="shared" ref="S16:BF16" si="68">+MIN(S6:S14)</f>
+      <c r="S16" s="19">
+        <f t="shared" ref="S16" si="30">+MIN(S6:S14)</f>
         <v>0.52800000000000002</v>
       </c>
-      <c r="T16" s="38">
-        <f t="shared" ref="T16:BF16" si="69">+MAX(T6:T14)</f>
+      <c r="T16" s="19">
+        <f t="shared" ref="T16" si="31">+MAX(T6:T14)</f>
         <v>0.32300000000000001</v>
       </c>
-      <c r="U16" s="38">
-        <f t="shared" ref="U16:BF16" si="70">+MIN(U6:U14)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="38">
-        <f t="shared" ref="V16:BF16" si="71">+MAX(V6:V14)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="38">
-        <f t="shared" ref="W16:BF16" si="72">+MIN(W6:W14)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="38">
-        <f t="shared" ref="X16:BF16" si="73">+MAX(X6:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="38">
-        <f t="shared" ref="Y16:BF16" si="74">+MIN(Y6:Y14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="38">
-        <f t="shared" ref="Z16:BF16" si="75">+MAX(Z6:Z14)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="38">
-        <f t="shared" ref="AA16:BF16" si="76">+MIN(AA6:AA14)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="38">
-        <f t="shared" ref="AB16:BF16" si="77">+MAX(AB6:AB14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="38">
-        <f t="shared" ref="AC16:BF16" si="78">+MIN(AC6:AC14)</f>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19">
+        <f t="shared" ref="AC16" si="32">+MIN(AC6:AC14)</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="AD16" s="38">
-        <f t="shared" ref="AD16:BF16" si="79">+MAX(AD6:AD14)</f>
+      <c r="AD16" s="19">
+        <f t="shared" ref="AD16" si="33">+MAX(AD6:AD14)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="AE16" s="38">
-        <f t="shared" ref="AE16:BF16" si="80">+MIN(AE6:AE14)</f>
+      <c r="AE16" s="19">
+        <f t="shared" ref="AE16" si="34">+MIN(AE6:AE14)</f>
         <v>0.46800000000000003</v>
       </c>
-      <c r="AF16" s="38">
-        <f t="shared" ref="AF16:BF16" si="81">+MAX(AF6:AF14)</f>
+      <c r="AF16" s="19">
+        <f t="shared" ref="AF16" si="35">+MAX(AF6:AF14)</f>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AG16" s="38">
-        <f t="shared" ref="AG16:BF16" si="82">+MIN(AG6:AG14)</f>
+      <c r="AG16" s="19">
+        <f t="shared" ref="AG16" si="36">+MIN(AG6:AG14)</f>
         <v>0.245</v>
       </c>
-      <c r="AH16" s="38">
-        <f t="shared" ref="AH16:BF16" si="83">+MAX(AH6:AH14)</f>
+      <c r="AH16" s="19">
+        <f t="shared" ref="AH16" si="37">+MAX(AH6:AH14)</f>
         <v>0.253</v>
       </c>
-      <c r="AI16" s="38">
-        <f t="shared" ref="AI16:BF16" si="84">+MIN(AI6:AI14)</f>
+      <c r="AI16" s="19">
+        <f t="shared" ref="AI16" si="38">+MIN(AI6:AI14)</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="AJ16" s="38">
-        <f t="shared" ref="AJ16:BF16" si="85">+MAX(AJ6:AJ14)</f>
+      <c r="AJ16" s="19">
+        <f t="shared" ref="AJ16" si="39">+MAX(AJ6:AJ14)</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="AK16" s="38">
-        <f t="shared" ref="AK16:BF16" si="86">+MIN(AK6:AK14)</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="38">
-        <f t="shared" ref="AL16:BF16" si="87">+MAX(AL6:AL14)</f>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="38">
-        <f t="shared" ref="AM16:BF16" si="88">+MIN(AM6:AM14)</f>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="38">
-        <f t="shared" ref="AN16:BF16" si="89">+MAX(AN6:AN14)</f>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="38">
-        <f t="shared" ref="AO16:BF16" si="90">+MIN(AO6:AO14)</f>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="38">
-        <f t="shared" ref="AP16:BF16" si="91">+MAX(AP6:AP14)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="38">
-        <f t="shared" ref="AQ16:BF16" si="92">+MIN(AQ6:AQ14)</f>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19">
+        <f t="shared" ref="AQ16" si="40">+MIN(AQ6:AQ14)</f>
         <v>0.17299999999999999</v>
       </c>
-      <c r="AR16" s="38">
-        <f t="shared" ref="AR16:BF16" si="93">+MAX(AR6:AR14)</f>
+      <c r="AR16" s="19">
+        <f t="shared" ref="AR16" si="41">+MAX(AR6:AR14)</f>
         <v>0.24199999999999999</v>
       </c>
-      <c r="AS16" s="38">
-        <f t="shared" ref="AS16:BF16" si="94">+MIN(AS6:AS14)</f>
+      <c r="AS16" s="19">
+        <f t="shared" ref="AS16" si="42">+MIN(AS6:AS14)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="AT16" s="38">
-        <f t="shared" ref="AT16:BF16" si="95">+MAX(AT6:AT14)</f>
+      <c r="AT16" s="19">
+        <f t="shared" ref="AT16" si="43">+MAX(AT6:AT14)</f>
         <v>0.24299999999999999</v>
       </c>
-      <c r="AU16" s="38">
-        <f t="shared" ref="AU16:BF16" si="96">+MIN(AU6:AU14)</f>
+      <c r="AU16" s="19">
+        <f t="shared" ref="AU16" si="44">+MIN(AU6:AU14)</f>
         <v>0.47099999999999997</v>
       </c>
-      <c r="AV16" s="38">
-        <f t="shared" ref="AV16:BF16" si="97">+MAX(AV6:AV14)</f>
+      <c r="AV16" s="19">
+        <f t="shared" ref="AV16" si="45">+MAX(AV6:AV14)</f>
         <v>0.255</v>
       </c>
-      <c r="AW16" s="38">
-        <f t="shared" ref="AW16:BF16" si="98">+MIN(AW6:AW14)</f>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="38">
-        <f t="shared" ref="AX16:BF16" si="99">+MAX(AX6:AX14)</f>
-        <v>0</v>
-      </c>
-      <c r="AY16" s="38">
-        <f t="shared" ref="AY16:BF16" si="100">+MIN(AY6:AY14)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="38">
-        <f t="shared" ref="AZ16:BF16" si="101">+MAX(AZ6:AZ14)</f>
-        <v>0</v>
-      </c>
-      <c r="BA16" s="38">
-        <f t="shared" ref="BA16:BF16" si="102">+MIN(BA6:BA14)</f>
-        <v>0</v>
-      </c>
-      <c r="BB16" s="38">
-        <f t="shared" ref="BB16:BF16" si="103">+MAX(BB6:BB14)</f>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="38">
-        <f t="shared" ref="BC16:BF16" si="104">+MIN(BC6:BC14)</f>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="38">
-        <f t="shared" ref="BD16:BF16" si="105">+MAX(BD6:BD14)</f>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="38">
-        <f t="shared" ref="BE16:BF16" si="106">+MIN(BE6:BE14)</f>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19">
+        <f t="shared" ref="BE16" si="46">+MIN(BE6:BE14)</f>
         <v>0.35799999999999998</v>
       </c>
-      <c r="BF16" s="38">
-        <f t="shared" ref="BF16" si="107">+MAX(BF6:BF14)</f>
+      <c r="BF16" s="19">
+        <f t="shared" ref="BF16" si="47">+MAX(BF6:BF14)</f>
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="9">
@@ -2331,7 +2154,7 @@
       <c r="BE17" s="15"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2400,7 +2223,7 @@
       <c r="BE18" s="15"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2292,7 @@
       <c r="BE19" s="15"/>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2361,7 @@
       <c r="BE20" s="15"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2602,7 +2425,7 @@
       <c r="BE21" s="15"/>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2671,7 +2494,7 @@
       <c r="BE22" s="15"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2735,7 +2558,7 @@
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2814,7 +2637,7 @@
       <c r="BE24" s="15"/>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2878,463 +2701,271 @@
       </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="38">
+      <c r="C26" s="19">
         <f>+MAX(C17:C25)</f>
         <v>0.61499999999999999</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="19">
         <f>+MIN(D17:D25)</f>
         <v>9.4E-2</v>
       </c>
-      <c r="E26" s="38">
-        <f t="shared" ref="E26" si="108">+MAX(E17:E25)</f>
+      <c r="E26" s="19">
+        <f t="shared" ref="E26" si="48">+MAX(E17:E25)</f>
         <v>0.56200000000000006</v>
       </c>
-      <c r="F26" s="38">
-        <f t="shared" ref="F26" si="109">+MIN(F17:F25)</f>
+      <c r="F26" s="19">
+        <f t="shared" ref="F26" si="49">+MIN(F17:F25)</f>
         <v>0.19700000000000001</v>
       </c>
-      <c r="G26" s="38">
-        <f t="shared" ref="G26" si="110">+MAX(G17:G25)</f>
+      <c r="G26" s="19">
+        <f t="shared" ref="G26" si="50">+MAX(G17:G25)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="H26" s="38">
-        <f t="shared" ref="H26" si="111">+MIN(H17:H25)</f>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26" si="51">+MIN(H17:H25)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="I26" s="38">
-        <f t="shared" ref="I26" si="112">+MAX(I17:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="38">
-        <f t="shared" ref="J26" si="113">+MIN(J17:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="38">
-        <f t="shared" ref="K26" si="114">+MAX(K17:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="38">
-        <f t="shared" ref="L26" si="115">+MIN(L17:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="38">
-        <f t="shared" ref="M26" si="116">+MAX(M17:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="38">
-        <f t="shared" ref="N26" si="117">+MIN(N17:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="38">
-        <f t="shared" ref="O26" si="118">+MAX(O17:O25)</f>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19">
+        <f t="shared" ref="O26" si="52">+MAX(O17:O25)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="P26" s="38">
-        <f t="shared" ref="P26" si="119">+MIN(P17:P25)</f>
+      <c r="P26" s="19">
+        <f t="shared" ref="P26" si="53">+MIN(P17:P25)</f>
         <v>0.2</v>
       </c>
-      <c r="Q26" s="38">
-        <f t="shared" ref="Q26" si="120">+MAX(Q17:Q25)</f>
+      <c r="Q26" s="19">
+        <f t="shared" ref="Q26" si="54">+MAX(Q17:Q25)</f>
         <v>0.628</v>
       </c>
-      <c r="R26" s="38">
-        <f t="shared" ref="R26" si="121">+MIN(R17:R25)</f>
+      <c r="R26" s="19">
+        <f t="shared" ref="R26" si="55">+MIN(R17:R25)</f>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S26" s="38">
-        <f t="shared" ref="S26" si="122">+MAX(S17:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="38">
-        <f t="shared" ref="T26" si="123">+MIN(T17:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="38">
-        <f t="shared" ref="U26" si="124">+MAX(U17:U25)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="38">
-        <f t="shared" ref="V26" si="125">+MIN(V17:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="38">
-        <f t="shared" ref="W26" si="126">+MAX(W17:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="38">
-        <f t="shared" ref="X26" si="127">+MIN(X17:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="38">
-        <f t="shared" ref="Y26" si="128">+MAX(Y17:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="38">
-        <f t="shared" ref="Z26" si="129">+MIN(Z17:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="38">
-        <f t="shared" ref="AA26" si="130">+MAX(AA17:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="38">
-        <f t="shared" ref="AB26" si="131">+MIN(AB17:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="38">
-        <f t="shared" ref="AC26" si="132">+MAX(AC17:AC25)</f>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19">
+        <f t="shared" ref="AC26" si="56">+MAX(AC17:AC25)</f>
         <v>0.501</v>
       </c>
-      <c r="AD26" s="38">
-        <f t="shared" ref="AD26" si="133">+MIN(AD17:AD25)</f>
+      <c r="AD26" s="19">
+        <f t="shared" ref="AD26" si="57">+MIN(AD17:AD25)</f>
         <v>0.221</v>
       </c>
-      <c r="AE26" s="38">
-        <f t="shared" ref="AE26" si="134">+MAX(AE17:AE25)</f>
+      <c r="AE26" s="19">
+        <f t="shared" ref="AE26" si="58">+MAX(AE17:AE25)</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="AF26" s="38">
-        <f t="shared" ref="AF26" si="135">+MIN(AF17:AF25)</f>
+      <c r="AF26" s="19">
+        <f t="shared" ref="AF26" si="59">+MIN(AF17:AF25)</f>
         <v>2.3E-2</v>
       </c>
-      <c r="AG26" s="38">
-        <f t="shared" ref="AG26" si="136">+MAX(AG17:AG25)</f>
+      <c r="AG26" s="19">
+        <f t="shared" ref="AG26" si="60">+MAX(AG17:AG25)</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="AH26" s="38">
-        <f t="shared" ref="AH26" si="137">+MIN(AH17:AH25)</f>
+      <c r="AH26" s="19">
+        <f t="shared" ref="AH26" si="61">+MIN(AH17:AH25)</f>
         <v>0.32200000000000001</v>
       </c>
-      <c r="AI26" s="38">
-        <f t="shared" ref="AI26" si="138">+MAX(AI17:AI25)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="38">
-        <f t="shared" ref="AJ26" si="139">+MIN(AJ17:AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="38">
-        <f t="shared" ref="AK26" si="140">+MAX(AK17:AK25)</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="38">
-        <f t="shared" ref="AL26" si="141">+MIN(AL17:AL25)</f>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="38">
-        <f t="shared" ref="AM26" si="142">+MAX(AM17:AM25)</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="38">
-        <f t="shared" ref="AN26" si="143">+MIN(AN17:AN25)</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="38">
-        <f t="shared" ref="AO26" si="144">+MAX(AO17:AO25)</f>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="38">
-        <f t="shared" ref="AP26" si="145">+MIN(AP17:AP25)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="38">
-        <f t="shared" ref="AQ26" si="146">+MAX(AQ17:AQ25)</f>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19">
+        <f t="shared" ref="AQ26" si="62">+MAX(AQ17:AQ25)</f>
         <v>0.53800000000000003</v>
       </c>
-      <c r="AR26" s="38">
-        <f t="shared" ref="AR26" si="147">+MIN(AR17:AR25)</f>
+      <c r="AR26" s="19">
+        <f t="shared" ref="AR26" si="63">+MIN(AR17:AR25)</f>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AS26" s="38">
-        <f t="shared" ref="AS26" si="148">+MAX(AS17:AS25)</f>
+      <c r="AS26" s="19">
+        <f t="shared" ref="AS26" si="64">+MAX(AS17:AS25)</f>
         <v>0.96299999999999997</v>
       </c>
-      <c r="AT26" s="38">
-        <f t="shared" ref="AT26" si="149">+MIN(AT17:AT25)</f>
+      <c r="AT26" s="19">
+        <f t="shared" ref="AT26" si="65">+MIN(AT17:AT25)</f>
         <v>6.3E-2</v>
       </c>
-      <c r="AU26" s="38">
-        <f t="shared" ref="AU26" si="150">+MAX(AU17:AU25)</f>
+      <c r="AU26" s="19">
+        <f t="shared" ref="AU26" si="66">+MAX(AU17:AU25)</f>
         <v>0.59</v>
       </c>
-      <c r="AV26" s="38">
-        <f t="shared" ref="AV26" si="151">+MIN(AV17:AV25)</f>
+      <c r="AV26" s="19">
+        <f t="shared" ref="AV26" si="67">+MIN(AV17:AV25)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="AW26" s="38">
-        <f t="shared" ref="AW26" si="152">+MAX(AW17:AW25)</f>
-        <v>0</v>
-      </c>
-      <c r="AX26" s="38">
-        <f t="shared" ref="AX26" si="153">+MIN(AX17:AX25)</f>
-        <v>0</v>
-      </c>
-      <c r="AY26" s="38">
-        <f t="shared" ref="AY26" si="154">+MAX(AY17:AY25)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="38">
-        <f t="shared" ref="AZ26" si="155">+MIN(AZ17:AZ25)</f>
-        <v>0</v>
-      </c>
-      <c r="BA26" s="38">
-        <f t="shared" ref="BA26" si="156">+MAX(BA17:BA25)</f>
-        <v>0</v>
-      </c>
-      <c r="BB26" s="38">
-        <f t="shared" ref="BB26" si="157">+MIN(BB17:BB25)</f>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="38">
-        <f t="shared" ref="BC26" si="158">+MAX(BC17:BC25)</f>
-        <v>0</v>
-      </c>
-      <c r="BD26" s="38">
-        <f t="shared" ref="BD26" si="159">+MIN(BD17:BD25)</f>
-        <v>0</v>
-      </c>
-      <c r="BE26" s="38">
-        <f t="shared" ref="BE26" si="160">+MAX(BE17:BE25)</f>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19">
+        <f t="shared" ref="BE26" si="68">+MAX(BE17:BE25)</f>
         <v>0.873</v>
       </c>
-      <c r="BF26" s="38">
-        <f t="shared" ref="BF26" si="161">+MIN(BF17:BF25)</f>
+      <c r="BF26" s="19">
+        <f t="shared" ref="BF26" si="69">+MIN(BF17:BF25)</f>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="38">
+      <c r="C27" s="19">
         <f>+MIN(C17:C25)</f>
         <v>0.56699999999999995</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="19">
         <f>+MAX(D17:D25)</f>
         <v>0.151</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="19">
         <f>+MIN(E17:E25)</f>
         <v>0.22700000000000001</v>
       </c>
-      <c r="F27" s="38">
-        <f t="shared" ref="F27:AK27" si="162">+MAX(F17:F25)</f>
+      <c r="F27" s="19">
+        <f t="shared" ref="F27" si="70">+MAX(F17:F25)</f>
         <v>0.51700000000000002</v>
       </c>
-      <c r="G27" s="38">
-        <f t="shared" ref="G27:AL27" si="163">+MIN(G17:G25)</f>
+      <c r="G27" s="19">
+        <f t="shared" ref="G27" si="71">+MIN(G17:G25)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="H27" s="38">
-        <f t="shared" ref="H27:AM27" si="164">+MAX(H17:H25)</f>
+      <c r="H27" s="19">
+        <f t="shared" ref="H27" si="72">+MAX(H17:H25)</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="I27" s="38">
-        <f t="shared" ref="I27:AN27" si="165">+MIN(I17:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="38">
-        <f t="shared" ref="J27:AO27" si="166">+MAX(J17:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="38">
-        <f t="shared" ref="K27:BF27" si="167">+MIN(K17:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="38">
-        <f t="shared" ref="L27:BF27" si="168">+MAX(L17:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="38">
-        <f t="shared" ref="M27:BF27" si="169">+MIN(M17:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="38">
-        <f t="shared" ref="N27:BF27" si="170">+MAX(N17:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" ref="O27:BF27" si="171">+MIN(O17:O25)</f>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19">
+        <f t="shared" ref="O27" si="73">+MIN(O17:O25)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="P27" s="38">
-        <f t="shared" ref="P27:BF27" si="172">+MAX(P17:P25)</f>
+      <c r="P27" s="19">
+        <f t="shared" ref="P27" si="74">+MAX(P17:P25)</f>
         <v>0.42099999999999999</v>
       </c>
-      <c r="Q27" s="38">
-        <f t="shared" ref="Q27:BF27" si="173">+MIN(Q17:Q25)</f>
+      <c r="Q27" s="19">
+        <f t="shared" ref="Q27" si="75">+MIN(Q17:Q25)</f>
         <v>0.51300000000000001</v>
       </c>
-      <c r="R27" s="38">
-        <f t="shared" ref="R27:BF27" si="174">+MAX(R17:R25)</f>
+      <c r="R27" s="19">
+        <f t="shared" ref="R27" si="76">+MAX(R17:R25)</f>
         <v>0.27900000000000003</v>
       </c>
-      <c r="S27" s="38">
-        <f t="shared" ref="S27:BF27" si="175">+MIN(S17:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="38">
-        <f t="shared" ref="T27:BF27" si="176">+MAX(T17:T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="38">
-        <f t="shared" ref="U27:BF27" si="177">+MIN(U17:U25)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="38">
-        <f t="shared" ref="V27:BF27" si="178">+MAX(V17:V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="38">
-        <f t="shared" ref="W27:BF27" si="179">+MIN(W17:W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="38">
-        <f t="shared" ref="X27:BF27" si="180">+MAX(X17:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="38">
-        <f t="shared" ref="Y27:BF27" si="181">+MIN(Y17:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="38">
-        <f t="shared" ref="Z27:BF27" si="182">+MAX(Z17:Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="38">
-        <f t="shared" ref="AA27:BF27" si="183">+MIN(AA17:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="38">
-        <f t="shared" ref="AB27:BF27" si="184">+MAX(AB17:AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="38">
-        <f t="shared" ref="AC27:BF27" si="185">+MIN(AC17:AC25)</f>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19">
+        <f t="shared" ref="AC27" si="77">+MIN(AC17:AC25)</f>
         <v>0.221</v>
       </c>
-      <c r="AD27" s="38">
-        <f t="shared" ref="AD27:BF27" si="186">+MAX(AD17:AD25)</f>
+      <c r="AD27" s="19">
+        <f t="shared" ref="AD27" si="78">+MAX(AD17:AD25)</f>
         <v>0.501</v>
       </c>
-      <c r="AE27" s="38">
-        <f t="shared" ref="AE27:BF27" si="187">+MIN(AE17:AE25)</f>
+      <c r="AE27" s="19">
+        <f t="shared" ref="AE27" si="79">+MIN(AE17:AE25)</f>
         <v>0.503</v>
       </c>
-      <c r="AF27" s="38">
-        <f t="shared" ref="AF27:BF27" si="188">+MAX(AF17:AF25)</f>
+      <c r="AF27" s="19">
+        <f t="shared" ref="AF27" si="80">+MAX(AF17:AF25)</f>
         <v>0.155</v>
       </c>
-      <c r="AG27" s="38">
-        <f t="shared" ref="AG27:BF27" si="189">+MIN(AG17:AG25)</f>
+      <c r="AG27" s="19">
+        <f t="shared" ref="AG27" si="81">+MIN(AG17:AG25)</f>
         <v>0.48899999999999999</v>
       </c>
-      <c r="AH27" s="38">
-        <f t="shared" ref="AH27:BF27" si="190">+MAX(AH17:AH25)</f>
+      <c r="AH27" s="19">
+        <f t="shared" ref="AH27" si="82">+MAX(AH17:AH25)</f>
         <v>0.32200000000000001</v>
       </c>
-      <c r="AI27" s="38">
-        <f t="shared" ref="AI27:BF27" si="191">+MIN(AI17:AI25)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="38">
-        <f t="shared" ref="AJ27:BF27" si="192">+MAX(AJ17:AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="38">
-        <f t="shared" ref="AK27:BF27" si="193">+MIN(AK17:AK25)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="38">
-        <f t="shared" ref="AL27:BF27" si="194">+MAX(AL17:AL25)</f>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="38">
-        <f t="shared" ref="AM27:BF27" si="195">+MIN(AM17:AM25)</f>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="38">
-        <f t="shared" ref="AN27:BF27" si="196">+MAX(AN17:AN25)</f>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="38">
-        <f t="shared" ref="AO27:BF27" si="197">+MIN(AO17:AO25)</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="38">
-        <f t="shared" ref="AP27:BF27" si="198">+MAX(AP17:AP25)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="38">
-        <f t="shared" ref="AQ27:BF27" si="199">+MIN(AQ17:AQ25)</f>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19">
+        <f t="shared" ref="AQ27" si="83">+MIN(AQ17:AQ25)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AR27" s="38">
-        <f t="shared" ref="AR27:BF27" si="200">+MAX(AR17:AR25)</f>
+      <c r="AR27" s="19">
+        <f t="shared" ref="AR27" si="84">+MAX(AR17:AR25)</f>
         <v>0.29499999999999998</v>
       </c>
-      <c r="AS27" s="38">
-        <f t="shared" ref="AS27:BF27" si="201">+MIN(AS17:AS25)</f>
+      <c r="AS27" s="19">
+        <f t="shared" ref="AS27" si="85">+MIN(AS17:AS25)</f>
         <v>0.53700000000000003</v>
       </c>
-      <c r="AT27" s="38">
-        <f t="shared" ref="AT27:BF27" si="202">+MAX(AT17:AT25)</f>
+      <c r="AT27" s="19">
+        <f t="shared" ref="AT27" si="86">+MAX(AT17:AT25)</f>
         <v>0.13400000000000001</v>
       </c>
-      <c r="AU27" s="38">
-        <f t="shared" ref="AU27:BF27" si="203">+MIN(AU17:AU25)</f>
+      <c r="AU27" s="19">
+        <f t="shared" ref="AU27" si="87">+MIN(AU17:AU25)</f>
         <v>0.51100000000000001</v>
       </c>
-      <c r="AV27" s="38">
-        <f t="shared" ref="AV27:BF27" si="204">+MAX(AV17:AV25)</f>
+      <c r="AV27" s="19">
+        <f t="shared" ref="AV27" si="88">+MAX(AV17:AV25)</f>
         <v>0.52100000000000002</v>
       </c>
-      <c r="AW27" s="38">
-        <f t="shared" ref="AW27:BF27" si="205">+MIN(AW17:AW25)</f>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="38">
-        <f t="shared" ref="AX27:BF27" si="206">+MAX(AX17:AX25)</f>
-        <v>0</v>
-      </c>
-      <c r="AY27" s="38">
-        <f t="shared" ref="AY27:BF27" si="207">+MIN(AY17:AY25)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="38">
-        <f t="shared" ref="AZ27:BF27" si="208">+MAX(AZ17:AZ25)</f>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="38">
-        <f t="shared" ref="BA27:BF27" si="209">+MIN(BA17:BA25)</f>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="38">
-        <f t="shared" ref="BB27:BF27" si="210">+MAX(BB17:BB25)</f>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="38">
-        <f t="shared" ref="BC27:BF27" si="211">+MIN(BC17:BC25)</f>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="38">
-        <f t="shared" ref="BD27:BF27" si="212">+MAX(BD17:BD25)</f>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="38">
-        <f t="shared" ref="BE27:BF27" si="213">+MIN(BE17:BE25)</f>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19">
+        <f t="shared" ref="BE27" si="89">+MIN(BE17:BE25)</f>
         <v>0.27700000000000002</v>
       </c>
-      <c r="BF27" s="38">
-        <f t="shared" ref="BF27" si="214">+MAX(BF17:BF25)</f>
+      <c r="BF27" s="19">
+        <f t="shared" ref="BF27" si="90">+MAX(BF17:BF25)</f>
         <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3390,7 +3021,7 @@
       <c r="BE28" s="15"/>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +3085,7 @@
       <c r="BE29" s="15"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -3508,7 +3139,7 @@
       <c r="BE30" s="15"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3562,7 +3193,7 @@
       <c r="BE31" s="15"/>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -3631,7 +3262,7 @@
       <c r="BE32" s="15"/>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3700,7 +3331,7 @@
       <c r="BE33" s="15"/>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3759,7 +3390,7 @@
       <c r="BE34" s="15"/>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3838,7 +3469,7 @@
       </c>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -3892,463 +3523,271 @@
       <c r="BE36" s="15"/>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="38">
+      <c r="C37" s="19">
         <f>+MAX(C28:C36)</f>
         <v>0.68600000000000005</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="19">
         <f>+MIN(D28:D36)</f>
         <v>0.122</v>
       </c>
-      <c r="E37" s="38">
-        <f t="shared" ref="E37" si="215">+MAX(E28:E36)</f>
+      <c r="E37" s="19">
+        <f t="shared" ref="E37" si="91">+MAX(E28:E36)</f>
         <v>0.502</v>
       </c>
-      <c r="F37" s="38">
-        <f t="shared" ref="F37" si="216">+MIN(F28:F36)</f>
+      <c r="F37" s="19">
+        <f t="shared" ref="F37" si="92">+MIN(F28:F36)</f>
         <v>0.502</v>
       </c>
-      <c r="G37" s="38">
-        <f t="shared" ref="G37" si="217">+MAX(G28:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="38">
-        <f t="shared" ref="H37" si="218">+MIN(H28:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
-        <f t="shared" ref="I37" si="219">+MAX(I28:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="38">
-        <f t="shared" ref="J37" si="220">+MIN(J28:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="38">
-        <f t="shared" ref="K37" si="221">+MAX(K28:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="38">
-        <f t="shared" ref="L37" si="222">+MIN(L28:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="38">
-        <f t="shared" ref="M37" si="223">+MAX(M28:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="38">
-        <f t="shared" ref="N37" si="224">+MIN(N28:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="38">
-        <f t="shared" ref="O37" si="225">+MAX(O28:O36)</f>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19">
+        <f t="shared" ref="O37" si="93">+MAX(O28:O36)</f>
         <v>0.59899999999999998</v>
       </c>
-      <c r="P37" s="38">
-        <f t="shared" ref="P37" si="226">+MIN(P28:P36)</f>
+      <c r="P37" s="19">
+        <f t="shared" ref="P37" si="94">+MIN(P28:P36)</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="Q37" s="19">
         <f>+MAX(Q28:Q36)</f>
         <v>0.621</v>
       </c>
-      <c r="R37" s="38">
+      <c r="R37" s="19">
         <f>+MIN(R28:R36)</f>
         <v>0.13</v>
       </c>
-      <c r="S37" s="38">
-        <f t="shared" ref="S37" si="227">+MAX(S28:S36)</f>
+      <c r="S37" s="19">
+        <f t="shared" ref="S37" si="95">+MAX(S28:S36)</f>
         <v>0.54200000000000004</v>
       </c>
-      <c r="T37" s="38">
-        <f t="shared" ref="T37" si="228">+MIN(T28:T36)</f>
+      <c r="T37" s="19">
+        <f t="shared" ref="T37" si="96">+MIN(T28:T36)</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="U37" s="38">
-        <f t="shared" ref="U37" si="229">+MAX(U28:U36)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="38">
-        <f t="shared" ref="V37" si="230">+MIN(V28:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="38">
-        <f t="shared" ref="W37" si="231">+MAX(W28:W36)</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="38">
-        <f t="shared" ref="X37" si="232">+MIN(X28:X36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="38">
-        <f t="shared" ref="Y37" si="233">+MAX(Y28:Y36)</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="38">
-        <f t="shared" ref="Z37" si="234">+MIN(Z28:Z36)</f>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="38">
-        <f t="shared" ref="AA37" si="235">+MAX(AA28:AA36)</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="38">
-        <f t="shared" ref="AB37" si="236">+MIN(AB28:AB36)</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="38">
-        <f t="shared" ref="AC37" si="237">+MAX(AC28:AC36)</f>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19">
+        <f t="shared" ref="AC37" si="97">+MAX(AC28:AC36)</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="AD37" s="38">
-        <f t="shared" ref="AD37" si="238">+MIN(AD28:AD36)</f>
+      <c r="AD37" s="19">
+        <f t="shared" ref="AD37" si="98">+MIN(AD28:AD36)</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="AE37" s="38">
-        <f t="shared" ref="AE37" si="239">+MAX(AE28:AE36)</f>
+      <c r="AE37" s="19">
+        <f t="shared" ref="AE37" si="99">+MAX(AE28:AE36)</f>
         <v>0.59499999999999997</v>
       </c>
-      <c r="AF37" s="38">
-        <f t="shared" ref="AF37" si="240">+MIN(AF28:AF36)</f>
+      <c r="AF37" s="19">
+        <f t="shared" ref="AF37" si="100">+MIN(AF28:AF36)</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AG37" s="38">
-        <f t="shared" ref="AG37" si="241">+MAX(AG28:AG36)</f>
+      <c r="AG37" s="19">
+        <f t="shared" ref="AG37" si="101">+MAX(AG28:AG36)</f>
         <v>0.503</v>
       </c>
-      <c r="AH37" s="38">
-        <f t="shared" ref="AH37" si="242">+MIN(AH28:AH36)</f>
+      <c r="AH37" s="19">
+        <f t="shared" ref="AH37" si="102">+MIN(AH28:AH36)</f>
         <v>0.22</v>
       </c>
-      <c r="AI37" s="38">
-        <f t="shared" ref="AI37" si="243">+MAX(AI28:AI36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="38">
-        <f t="shared" ref="AJ37" si="244">+MIN(AJ28:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="38">
-        <f t="shared" ref="AK37" si="245">+MAX(AK28:AK36)</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="38">
-        <f t="shared" ref="AL37" si="246">+MIN(AL28:AL36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM37" s="38">
-        <f t="shared" ref="AM37" si="247">+MAX(AM28:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="38">
-        <f t="shared" ref="AN37" si="248">+MIN(AN28:AN36)</f>
-        <v>0</v>
-      </c>
-      <c r="AO37" s="38">
-        <f t="shared" ref="AO37" si="249">+MAX(AO28:AO36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP37" s="38">
-        <f t="shared" ref="AP37" si="250">+MIN(AP28:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="38">
-        <f t="shared" ref="AQ37" si="251">+MAX(AQ28:AQ36)</f>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19">
+        <f t="shared" ref="AQ37" si="103">+MAX(AQ28:AQ36)</f>
         <v>0.56799999999999995</v>
       </c>
-      <c r="AR37" s="38">
-        <f t="shared" ref="AR37" si="252">+MIN(AR28:AR36)</f>
+      <c r="AR37" s="19">
+        <f t="shared" ref="AR37" si="104">+MIN(AR28:AR36)</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="AS37" s="38">
-        <f t="shared" ref="AS37" si="253">+MAX(AS28:AS36)</f>
+      <c r="AS37" s="19">
+        <f t="shared" ref="AS37" si="105">+MAX(AS28:AS36)</f>
         <v>1.2849999999999999</v>
       </c>
-      <c r="AT37" s="38">
-        <f t="shared" ref="AT37" si="254">+MIN(AT28:AT36)</f>
+      <c r="AT37" s="19">
+        <f t="shared" ref="AT37" si="106">+MIN(AT28:AT36)</f>
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="AU37" s="38">
-        <f t="shared" ref="AU37" si="255">+MAX(AU28:AU36)</f>
+      <c r="AU37" s="19">
+        <f t="shared" ref="AU37" si="107">+MAX(AU28:AU36)</f>
         <v>0.49</v>
       </c>
-      <c r="AV37" s="38">
-        <f t="shared" ref="AV37" si="256">+MIN(AV28:AV36)</f>
+      <c r="AV37" s="19">
+        <f t="shared" ref="AV37" si="108">+MIN(AV28:AV36)</f>
         <v>0.187</v>
       </c>
-      <c r="AW37" s="38">
-        <f t="shared" ref="AW37" si="257">+MAX(AW28:AW36)</f>
-        <v>0</v>
-      </c>
-      <c r="AX37" s="38">
-        <f t="shared" ref="AX37" si="258">+MIN(AX28:AX36)</f>
-        <v>0</v>
-      </c>
-      <c r="AY37" s="38">
-        <f t="shared" ref="AY37" si="259">+MAX(AY28:AY36)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="38">
-        <f t="shared" ref="AZ37" si="260">+MIN(AZ28:AZ36)</f>
-        <v>0</v>
-      </c>
-      <c r="BA37" s="38">
-        <f t="shared" ref="BA37" si="261">+MAX(BA28:BA36)</f>
-        <v>0</v>
-      </c>
-      <c r="BB37" s="38">
-        <f t="shared" ref="BB37" si="262">+MIN(BB28:BB36)</f>
-        <v>0</v>
-      </c>
-      <c r="BC37" s="38">
-        <f t="shared" ref="BC37" si="263">+MAX(BC28:BC36)</f>
-        <v>0</v>
-      </c>
-      <c r="BD37" s="38">
-        <f t="shared" ref="BD37" si="264">+MIN(BD28:BD36)</f>
-        <v>0</v>
-      </c>
-      <c r="BE37" s="38">
-        <f t="shared" ref="BE37" si="265">+MAX(BE28:BE36)</f>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19">
+        <f t="shared" ref="BE37" si="109">+MAX(BE28:BE36)</f>
         <v>0.53</v>
       </c>
-      <c r="BF37" s="38">
-        <f t="shared" ref="BF37" si="266">+MIN(BF28:BF36)</f>
+      <c r="BF37" s="19">
+        <f t="shared" ref="BF37" si="110">+MIN(BF28:BF36)</f>
         <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="38">
+      <c r="C38" s="19">
         <f>+MIN(C28:C36)</f>
         <v>0.55600000000000005</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="19">
         <f>+MAX(D28:D36)</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="19">
         <f>+MIN(E28:E36)</f>
         <v>0.502</v>
       </c>
-      <c r="F38" s="38">
-        <f t="shared" ref="F38:AK38" si="267">+MAX(F28:F36)</f>
+      <c r="F38" s="19">
+        <f t="shared" ref="F38" si="111">+MAX(F28:F36)</f>
         <v>0.502</v>
       </c>
-      <c r="G38" s="38">
-        <f t="shared" ref="G38:AL38" si="268">+MIN(G28:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="38">
-        <f t="shared" ref="H38:AM38" si="269">+MAX(H28:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <f t="shared" ref="I38:AN38" si="270">+MIN(I28:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="38">
-        <f t="shared" ref="J38:AO38" si="271">+MAX(J28:J36)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="38">
-        <f t="shared" ref="K38:BF38" si="272">+MIN(K28:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="38">
-        <f t="shared" ref="L38:BF38" si="273">+MAX(L28:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="38">
-        <f t="shared" ref="M38:BF38" si="274">+MIN(M28:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="38">
-        <f t="shared" ref="N38:BF38" si="275">+MAX(N28:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="38">
-        <f t="shared" ref="O38:BF38" si="276">+MIN(O28:O36)</f>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19">
+        <f t="shared" ref="O38" si="112">+MIN(O28:O36)</f>
         <v>0.59499999999999997</v>
       </c>
-      <c r="P38" s="38">
-        <f t="shared" ref="P38:BF38" si="277">+MAX(P28:P36)</f>
+      <c r="P38" s="19">
+        <f t="shared" ref="P38" si="113">+MAX(P28:P36)</f>
         <v>0.26400000000000001</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="Q38" s="19">
         <f>+MIN(Q28:Q36)</f>
         <v>0.54400000000000004</v>
       </c>
-      <c r="R38" s="38">
-        <f t="shared" ref="R38:BF38" si="278">+MAX(R28:R36)</f>
+      <c r="R38" s="19">
+        <f t="shared" ref="R38" si="114">+MAX(R28:R36)</f>
         <v>0.254</v>
       </c>
-      <c r="S38" s="38">
-        <f t="shared" ref="S38:BF38" si="279">+MIN(S28:S36)</f>
+      <c r="S38" s="19">
+        <f t="shared" ref="S38" si="115">+MIN(S28:S36)</f>
         <v>0.51900000000000002</v>
       </c>
-      <c r="T38" s="38">
-        <f t="shared" ref="T38:BF38" si="280">+MAX(T28:T36)</f>
+      <c r="T38" s="19">
+        <f t="shared" ref="T38" si="116">+MAX(T28:T36)</f>
         <v>0.54200000000000004</v>
       </c>
-      <c r="U38" s="38">
-        <f t="shared" ref="U38:BF38" si="281">+MIN(U28:U36)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="38">
-        <f t="shared" ref="V38:BF38" si="282">+MAX(V28:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="38">
-        <f t="shared" ref="W38:BF38" si="283">+MIN(W28:W36)</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="38">
-        <f t="shared" ref="X38:BF38" si="284">+MAX(X28:X36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="38">
-        <f t="shared" ref="Y38:BF38" si="285">+MIN(Y28:Y36)</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="38">
-        <f t="shared" ref="Z38:BF38" si="286">+MAX(Z28:Z36)</f>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="38">
-        <f t="shared" ref="AA38:BF38" si="287">+MIN(AA28:AA36)</f>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="38">
-        <f t="shared" ref="AB38:BF38" si="288">+MAX(AB28:AB36)</f>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="38">
-        <f t="shared" ref="AC38:BF38" si="289">+MIN(AC28:AC36)</f>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19">
+        <f t="shared" ref="AC38" si="117">+MIN(AC28:AC36)</f>
         <v>0.42199999999999999</v>
       </c>
-      <c r="AD38" s="38">
-        <f t="shared" ref="AD38:BF38" si="290">+MAX(AD28:AD36)</f>
+      <c r="AD38" s="19">
+        <f t="shared" ref="AD38" si="118">+MAX(AD28:AD36)</f>
         <v>0.29699999999999999</v>
       </c>
-      <c r="AE38" s="38">
-        <f t="shared" ref="AE38:BF38" si="291">+MIN(AE28:AE36)</f>
+      <c r="AE38" s="19">
+        <f t="shared" ref="AE38" si="119">+MIN(AE28:AE36)</f>
         <v>0.53600000000000003</v>
       </c>
-      <c r="AF38" s="38">
-        <f t="shared" ref="AF38:BF38" si="292">+MAX(AF28:AF36)</f>
+      <c r="AF38" s="19">
+        <f t="shared" ref="AF38" si="120">+MAX(AF28:AF36)</f>
         <v>0.19</v>
       </c>
-      <c r="AG38" s="38">
-        <f t="shared" ref="AG38:BF38" si="293">+MIN(AG28:AG36)</f>
+      <c r="AG38" s="19">
+        <f t="shared" ref="AG38" si="121">+MIN(AG28:AG36)</f>
         <v>0.22</v>
       </c>
-      <c r="AH38" s="38">
-        <f t="shared" ref="AH38:BF38" si="294">+MAX(AH28:AH36)</f>
+      <c r="AH38" s="19">
+        <f t="shared" ref="AH38" si="122">+MAX(AH28:AH36)</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="AI38" s="38">
-        <f t="shared" ref="AI38:BF38" si="295">+MIN(AI28:AI36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="38">
-        <f t="shared" ref="AJ38:BF38" si="296">+MAX(AJ28:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="38">
-        <f t="shared" ref="AK38:BF38" si="297">+MIN(AK28:AK36)</f>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="38">
-        <f t="shared" ref="AL38:BF38" si="298">+MAX(AL28:AL36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM38" s="38">
-        <f t="shared" ref="AM38:BF38" si="299">+MIN(AM28:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AN38" s="38">
-        <f t="shared" ref="AN38:BF38" si="300">+MAX(AN28:AN36)</f>
-        <v>0</v>
-      </c>
-      <c r="AO38" s="38">
-        <f t="shared" ref="AO38:BF38" si="301">+MIN(AO28:AO36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP38" s="38">
-        <f t="shared" ref="AP38:BF38" si="302">+MAX(AP28:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="38">
-        <f t="shared" ref="AQ38:BF38" si="303">+MIN(AQ28:AQ36)</f>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+      <c r="AQ38" s="19">
+        <f t="shared" ref="AQ38" si="123">+MIN(AQ28:AQ36)</f>
         <v>0.56799999999999995</v>
       </c>
-      <c r="AR38" s="38">
-        <f t="shared" ref="AR38:BF38" si="304">+MAX(AR28:AR36)</f>
+      <c r="AR38" s="19">
+        <f t="shared" ref="AR38" si="124">+MAX(AR28:AR36)</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="AS38" s="38">
-        <f t="shared" ref="AS38:BF38" si="305">+MIN(AS28:AS36)</f>
+      <c r="AS38" s="19">
+        <f t="shared" ref="AS38" si="125">+MIN(AS28:AS36)</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="AT38" s="38">
-        <f t="shared" ref="AT38:BF38" si="306">+MAX(AT28:AT36)</f>
+      <c r="AT38" s="19">
+        <f t="shared" ref="AT38" si="126">+MAX(AT28:AT36)</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="AU38" s="38">
-        <f t="shared" ref="AU38:BF38" si="307">+MIN(AU28:AU36)</f>
+      <c r="AU38" s="19">
+        <f t="shared" ref="AU38" si="127">+MIN(AU28:AU36)</f>
         <v>0.377</v>
       </c>
-      <c r="AV38" s="38">
-        <f t="shared" ref="AV38:BF38" si="308">+MAX(AV28:AV36)</f>
+      <c r="AV38" s="19">
+        <f t="shared" ref="AV38" si="128">+MAX(AV28:AV36)</f>
         <v>0.377</v>
       </c>
-      <c r="AW38" s="38">
-        <f t="shared" ref="AW38:BF38" si="309">+MIN(AW28:AW36)</f>
-        <v>0</v>
-      </c>
-      <c r="AX38" s="38">
-        <f t="shared" ref="AX38:BF38" si="310">+MAX(AX28:AX36)</f>
-        <v>0</v>
-      </c>
-      <c r="AY38" s="38">
-        <f t="shared" ref="AY38:BF38" si="311">+MIN(AY28:AY36)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="38">
-        <f t="shared" ref="AZ38:BF38" si="312">+MAX(AZ28:AZ36)</f>
-        <v>0</v>
-      </c>
-      <c r="BA38" s="38">
-        <f t="shared" ref="BA38:BF38" si="313">+MIN(BA28:BA36)</f>
-        <v>0</v>
-      </c>
-      <c r="BB38" s="38">
-        <f t="shared" ref="BB38:BF38" si="314">+MAX(BB28:BB36)</f>
-        <v>0</v>
-      </c>
-      <c r="BC38" s="38">
-        <f t="shared" ref="BC38:BF38" si="315">+MIN(BC28:BC36)</f>
-        <v>0</v>
-      </c>
-      <c r="BD38" s="38">
-        <f t="shared" ref="BD38:BF38" si="316">+MAX(BD28:BD36)</f>
-        <v>0</v>
-      </c>
-      <c r="BE38" s="38">
-        <f t="shared" ref="BE38:BF38" si="317">+MIN(BE28:BE36)</f>
+      <c r="AW38" s="19"/>
+      <c r="AX38" s="19"/>
+      <c r="AY38" s="19"/>
+      <c r="AZ38" s="19"/>
+      <c r="BA38" s="19"/>
+      <c r="BB38" s="19"/>
+      <c r="BC38" s="19"/>
+      <c r="BD38" s="19"/>
+      <c r="BE38" s="19">
+        <f t="shared" ref="BE38" si="129">+MIN(BE28:BE36)</f>
         <v>0.53</v>
       </c>
-      <c r="BF38" s="38">
-        <f t="shared" ref="BF38" si="318">+MAX(BF28:BF36)</f>
+      <c r="BF38" s="19">
+        <f t="shared" ref="BF38" si="130">+MAX(BF28:BF36)</f>
         <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4429,7 +3868,7 @@
       <c r="BE39" s="15"/>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
@@ -4513,7 +3952,7 @@
       </c>
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
@@ -4587,7 +4026,7 @@
       <c r="BE41" s="15"/>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4105,7 @@
       <c r="BE42" s="15"/>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
@@ -4720,7 +4159,7 @@
       </c>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4243,7 @@
       </c>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4322,7 @@
       </c>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
@@ -4972,7 +4411,7 @@
       </c>
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5041,463 +4480,572 @@
       </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="38">
+      <c r="C48" s="19">
         <f>+MAX(C39:C47)</f>
         <v>0.59899999999999998</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="19">
         <f>+MIN(D39:D47)</f>
         <v>7.8E-2</v>
       </c>
-      <c r="E48" s="38">
-        <f t="shared" ref="E48" si="319">+MAX(E39:E47)</f>
+      <c r="E48" s="19">
+        <f t="shared" ref="E48" si="131">+MAX(E39:E47)</f>
         <v>0.44</v>
       </c>
-      <c r="F48" s="38">
-        <f t="shared" ref="F48" si="320">+MIN(F39:F47)</f>
+      <c r="F48" s="19">
+        <f t="shared" ref="F48" si="132">+MIN(F39:F47)</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="G48" s="38">
-        <f t="shared" ref="G48" si="321">+MAX(G39:G47)</f>
+      <c r="G48" s="19">
+        <f t="shared" ref="G48" si="133">+MAX(G39:G47)</f>
         <v>0.436</v>
       </c>
-      <c r="H48" s="38">
-        <f t="shared" ref="H48" si="322">+MIN(H39:H47)</f>
+      <c r="H48" s="19">
+        <f t="shared" ref="H48" si="134">+MIN(H39:H47)</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="I48" s="38">
-        <f t="shared" ref="I48" si="323">+MAX(I39:I47)</f>
+      <c r="I48" s="19">
+        <f t="shared" ref="I48" si="135">+MAX(I39:I47)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="J48" s="38">
-        <f t="shared" ref="J48" si="324">+MIN(J39:J47)</f>
+      <c r="J48" s="19">
+        <f t="shared" ref="J48" si="136">+MIN(J39:J47)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="K48" s="38">
-        <f t="shared" ref="K48" si="325">+MAX(K39:K47)</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="38">
-        <f t="shared" ref="L48" si="326">+MIN(L39:L47)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="38">
-        <f t="shared" ref="M48" si="327">+MAX(M39:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="38">
-        <f t="shared" ref="N48" si="328">+MIN(N39:N47)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="38">
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19">
         <f>+MAX(O39:O47)</f>
         <v>0.59099999999999997</v>
       </c>
-      <c r="P48" s="38">
-        <f t="shared" ref="P48" si="329">+MIN(P39:P47)</f>
+      <c r="P48" s="19">
+        <f t="shared" ref="P48" si="137">+MIN(P39:P47)</f>
         <v>0.10299999999999999</v>
       </c>
-      <c r="Q48" s="38">
-        <f t="shared" ref="Q48" si="330">+MAX(Q39:Q47)</f>
+      <c r="Q48" s="19">
+        <f t="shared" ref="Q48" si="138">+MAX(Q39:Q47)</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="R48" s="38">
+      <c r="R48" s="19">
         <f>+MIN(R39:R47)</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S48" s="38">
-        <f t="shared" ref="S48" si="331">+MAX(S39:S47)</f>
+      <c r="S48" s="19">
+        <f t="shared" ref="S48" si="139">+MAX(S39:S47)</f>
         <v>0.47</v>
       </c>
-      <c r="T48" s="38">
-        <f t="shared" ref="T48" si="332">+MIN(T39:T47)</f>
+      <c r="T48" s="19">
+        <f t="shared" ref="T48" si="140">+MIN(T39:T47)</f>
         <v>0.184</v>
       </c>
-      <c r="U48" s="38">
-        <f t="shared" ref="U48" si="333">+MAX(U39:U47)</f>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19">
+        <f t="shared" ref="AB48" si="141">+MIN(AB39:AB47)</f>
         <v>0</v>
       </c>
-      <c r="V48" s="38">
-        <f t="shared" ref="V48" si="334">+MIN(V39:V47)</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="38">
-        <f t="shared" ref="W48" si="335">+MAX(W39:W47)</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="38">
-        <f t="shared" ref="X48" si="336">+MIN(X39:X47)</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="38">
-        <f t="shared" ref="Y48" si="337">+MAX(Y39:Y47)</f>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="38">
-        <f t="shared" ref="Z48" si="338">+MIN(Z39:Z47)</f>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="38">
-        <f t="shared" ref="AA48" si="339">+MAX(AA39:AA47)</f>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="38">
-        <f t="shared" ref="AB48" si="340">+MIN(AB39:AB47)</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="38">
-        <f t="shared" ref="AC48" si="341">+MAX(AC39:AC47)</f>
+      <c r="AC48" s="19">
+        <f t="shared" ref="AC48" si="142">+MAX(AC39:AC47)</f>
         <v>0.58799999999999997</v>
       </c>
-      <c r="AD48" s="38">
-        <f t="shared" ref="AD48" si="342">+MIN(AD39:AD47)</f>
+      <c r="AD48" s="19">
+        <f t="shared" ref="AD48" si="143">+MIN(AD39:AD47)</f>
         <v>0.10199999999999999</v>
       </c>
-      <c r="AE48" s="38">
-        <f t="shared" ref="AE48" si="343">+MAX(AE39:AE47)</f>
+      <c r="AE48" s="19">
+        <f t="shared" ref="AE48" si="144">+MAX(AE39:AE47)</f>
         <v>0.59299999999999997</v>
       </c>
-      <c r="AF48" s="38">
-        <f t="shared" ref="AF48" si="344">+MIN(AF39:AF47)</f>
+      <c r="AF48" s="19">
+        <f t="shared" ref="AF48" si="145">+MIN(AF39:AF47)</f>
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AG48" s="38">
-        <f t="shared" ref="AG48" si="345">+MAX(AG39:AG47)</f>
+      <c r="AG48" s="19">
+        <f t="shared" ref="AG48" si="146">+MAX(AG39:AG47)</f>
         <v>0.35</v>
       </c>
-      <c r="AH48" s="38">
-        <f t="shared" ref="AH48" si="346">+MIN(AH39:AH47)</f>
+      <c r="AH48" s="19">
+        <f t="shared" ref="AH48" si="147">+MIN(AH39:AH47)</f>
         <v>0.11799999999999999</v>
       </c>
-      <c r="AI48" s="38">
-        <f t="shared" ref="AI48" si="347">+MAX(AI39:AI47)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="38">
-        <f t="shared" ref="AJ48" si="348">+MIN(AJ39:AJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="38">
-        <f t="shared" ref="AK48" si="349">+MAX(AK39:AK47)</f>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="38">
-        <f t="shared" ref="AL48" si="350">+MIN(AL39:AL47)</f>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="38">
-        <f t="shared" ref="AM48" si="351">+MAX(AM39:AM47)</f>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="38">
-        <f t="shared" ref="AN48" si="352">+MIN(AN39:AN47)</f>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="38">
-        <f t="shared" ref="AO48" si="353">+MAX(AO39:AO47)</f>
-        <v>0</v>
-      </c>
-      <c r="AP48" s="38">
-        <f t="shared" ref="AP48" si="354">+MIN(AP39:AP47)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="38">
-        <f t="shared" ref="AQ48" si="355">+MAX(AQ39:AQ47)</f>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AQ48" s="19">
+        <f t="shared" ref="AQ48" si="148">+MAX(AQ39:AQ47)</f>
         <v>0.58099999999999996</v>
       </c>
-      <c r="AR48" s="38">
-        <f t="shared" ref="AR48" si="356">+MIN(AR39:AR47)</f>
+      <c r="AR48" s="19">
+        <f t="shared" ref="AR48" si="149">+MIN(AR39:AR47)</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AS48" s="38">
-        <f t="shared" ref="AS48" si="357">+MAX(AS39:AS47)</f>
+      <c r="AS48" s="19">
+        <f t="shared" ref="AS48" si="150">+MAX(AS39:AS47)</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="AT48" s="38">
-        <f t="shared" ref="AT48" si="358">+MIN(AT39:AT47)</f>
+      <c r="AT48" s="19">
+        <f t="shared" ref="AT48" si="151">+MIN(AT39:AT47)</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AU48" s="38">
-        <f t="shared" ref="AU48" si="359">+MAX(AU39:AU47)</f>
+      <c r="AU48" s="19">
+        <f t="shared" ref="AU48" si="152">+MAX(AU39:AU47)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV48" s="38">
-        <f t="shared" ref="AV48" si="360">+MIN(AV39:AV47)</f>
+      <c r="AV48" s="19">
+        <f t="shared" ref="AV48" si="153">+MIN(AV39:AV47)</f>
         <v>0.08</v>
       </c>
-      <c r="AW48" s="38">
-        <f t="shared" ref="AW48" si="361">+MAX(AW39:AW47)</f>
+      <c r="AW48" s="19">
+        <f t="shared" ref="AW48" si="154">+MAX(AW39:AW47)</f>
         <v>0.45300000000000001</v>
       </c>
-      <c r="AX48" s="38">
-        <f t="shared" ref="AX48" si="362">+MIN(AX39:AX47)</f>
+      <c r="AX48" s="19">
+        <f t="shared" ref="AX48" si="155">+MIN(AX39:AX47)</f>
         <v>0.13700000000000001</v>
       </c>
-      <c r="AY48" s="38">
-        <f t="shared" ref="AY48" si="363">+MAX(AY39:AY47)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="38">
-        <f t="shared" ref="AZ48" si="364">+MIN(AZ39:AZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="BA48" s="38">
-        <f t="shared" ref="BA48" si="365">+MAX(BA39:BA47)</f>
-        <v>0</v>
-      </c>
-      <c r="BB48" s="38">
-        <f t="shared" ref="BB48" si="366">+MIN(BB39:BB47)</f>
-        <v>0</v>
-      </c>
-      <c r="BC48" s="38">
-        <f t="shared" ref="BC48" si="367">+MAX(BC39:BC47)</f>
-        <v>0</v>
-      </c>
-      <c r="BD48" s="38">
-        <f t="shared" ref="BD48" si="368">+MIN(BD39:BD47)</f>
-        <v>0</v>
-      </c>
-      <c r="BE48" s="38">
-        <f t="shared" ref="BE48" si="369">+MAX(BE39:BE47)</f>
+      <c r="AY48" s="19"/>
+      <c r="AZ48" s="19"/>
+      <c r="BA48" s="19"/>
+      <c r="BB48" s="19"/>
+      <c r="BC48" s="19"/>
+      <c r="BD48" s="19"/>
+      <c r="BE48" s="19">
+        <f t="shared" ref="BE48" si="156">+MAX(BE39:BE47)</f>
         <v>0.65600000000000003</v>
       </c>
-      <c r="BF48" s="38">
-        <f t="shared" ref="BF48" si="370">+MIN(BF39:BF47)</f>
+      <c r="BF48" s="19">
+        <f t="shared" ref="BF48" si="157">+MIN(BF39:BF47)</f>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="38">
+      <c r="C49" s="19">
         <f>+MIN(C39:C47)</f>
         <v>0.53100000000000003</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="19">
         <f>+MAX(D39:D47)</f>
         <v>0.13200000000000001</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="19">
         <f>+MIN(E39:E47)</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="F49" s="38">
-        <f t="shared" ref="F49:AK49" si="371">+MAX(F39:F47)</f>
+      <c r="F49" s="19">
+        <f t="shared" ref="F49" si="158">+MAX(F39:F47)</f>
         <v>0.28799999999999998</v>
       </c>
-      <c r="G49" s="38">
-        <f t="shared" ref="G49:AL49" si="372">+MIN(G39:G47)</f>
+      <c r="G49" s="19">
+        <f t="shared" ref="G49" si="159">+MIN(G39:G47)</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="H49" s="38">
-        <f t="shared" ref="H49:AM49" si="373">+MAX(H39:H47)</f>
+      <c r="H49" s="19">
+        <f t="shared" ref="H49" si="160">+MAX(H39:H47)</f>
         <v>0.436</v>
       </c>
-      <c r="I49" s="38">
-        <f t="shared" ref="I49:AN49" si="374">+MIN(I39:I47)</f>
+      <c r="I49" s="19">
+        <f t="shared" ref="I49" si="161">+MIN(I39:I47)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="J49" s="38">
-        <f t="shared" ref="J49:AO49" si="375">+MAX(J39:J47)</f>
+      <c r="J49" s="19">
+        <f t="shared" ref="J49" si="162">+MAX(J39:J47)</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="K49" s="38">
-        <f t="shared" ref="K49:BF49" si="376">+MIN(K39:K47)</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="38">
-        <f t="shared" ref="L49:BF49" si="377">+MAX(L39:L47)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="38">
-        <f t="shared" ref="M49:BF49" si="378">+MIN(M39:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="38">
-        <f t="shared" ref="N49:BF49" si="379">+MAX(N39:N47)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="38">
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19">
         <f>+MIN(O39:O47)</f>
         <v>0.17899999999999999</v>
       </c>
-      <c r="P49" s="38">
-        <f t="shared" ref="P49:BF49" si="380">+MAX(P39:P47)</f>
+      <c r="P49" s="19">
+        <f t="shared" ref="P49" si="163">+MAX(P39:P47)</f>
         <v>0.42399999999999999</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="19">
         <f>+MIN(Q39:Q47)</f>
         <v>0.52600000000000002</v>
       </c>
-      <c r="R49" s="38">
-        <f t="shared" ref="R49:BF49" si="381">+MAX(R39:R47)</f>
+      <c r="R49" s="19">
+        <f t="shared" ref="R49" si="164">+MAX(R39:R47)</f>
         <v>0.13200000000000001</v>
       </c>
-      <c r="S49" s="38">
-        <f t="shared" ref="S49:BF49" si="382">+MIN(S39:S47)</f>
+      <c r="S49" s="19">
+        <f t="shared" ref="S49" si="165">+MIN(S39:S47)</f>
         <v>0.34200000000000003</v>
       </c>
-      <c r="T49" s="38">
-        <f t="shared" ref="T49:BF49" si="383">+MAX(T39:T47)</f>
+      <c r="T49" s="19">
+        <f t="shared" ref="T49" si="166">+MAX(T39:T47)</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="U49" s="38">
-        <f t="shared" ref="U49:BF49" si="384">+MIN(U39:U47)</f>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19">
+        <f t="shared" ref="AB49" si="167">+MAX(AB39:AB47)</f>
         <v>0</v>
       </c>
-      <c r="V49" s="38">
-        <f t="shared" ref="V49:BF49" si="385">+MAX(V39:V47)</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="38">
-        <f t="shared" ref="W49:BF49" si="386">+MIN(W39:W47)</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="38">
-        <f t="shared" ref="X49:BF49" si="387">+MAX(X39:X47)</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="38">
-        <f t="shared" ref="Y49:BF49" si="388">+MIN(Y39:Y47)</f>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="38">
-        <f t="shared" ref="Z49:BF49" si="389">+MAX(Z39:Z47)</f>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="38">
-        <f t="shared" ref="AA49:BF49" si="390">+MIN(AA39:AA47)</f>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="38">
-        <f t="shared" ref="AB49:BF49" si="391">+MAX(AB39:AB47)</f>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="38">
-        <f t="shared" ref="AC49:BF49" si="392">+MIN(AC39:AC47)</f>
+      <c r="AC49" s="19">
+        <f t="shared" ref="AC49" si="168">+MIN(AC39:AC47)</f>
         <v>0.40100000000000002</v>
       </c>
-      <c r="AD49" s="38">
-        <f t="shared" ref="AD49:BF49" si="393">+MAX(AD39:AD47)</f>
+      <c r="AD49" s="19">
+        <f t="shared" ref="AD49" si="169">+MAX(AD39:AD47)</f>
         <v>0.32800000000000001</v>
       </c>
-      <c r="AE49" s="38">
-        <f t="shared" ref="AE49:BF49" si="394">+MIN(AE39:AE47)</f>
+      <c r="AE49" s="19">
+        <f t="shared" ref="AE49" si="170">+MIN(AE39:AE47)</f>
         <v>0.48</v>
       </c>
-      <c r="AF49" s="38">
-        <f t="shared" ref="AF49:BF49" si="395">+MAX(AF39:AF47)</f>
+      <c r="AF49" s="19">
+        <f t="shared" ref="AF49" si="171">+MAX(AF39:AF47)</f>
         <v>0.06</v>
       </c>
-      <c r="AG49" s="38">
-        <f t="shared" ref="AG49:BF49" si="396">+MIN(AG39:AG47)</f>
+      <c r="AG49" s="19">
+        <f t="shared" ref="AG49" si="172">+MIN(AG39:AG47)</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="AH49" s="38">
-        <f t="shared" ref="AH49:BF49" si="397">+MAX(AH39:AH47)</f>
+      <c r="AH49" s="19">
+        <f t="shared" ref="AH49" si="173">+MAX(AH39:AH47)</f>
         <v>0.20899999999999999</v>
       </c>
-      <c r="AI49" s="38">
-        <f t="shared" ref="AI49:BF49" si="398">+MIN(AI39:AI47)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="38">
-        <f t="shared" ref="AJ49:BF49" si="399">+MAX(AJ39:AJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="38">
-        <f t="shared" ref="AK49:BF49" si="400">+MIN(AK39:AK47)</f>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="38">
-        <f t="shared" ref="AL49:BF49" si="401">+MAX(AL39:AL47)</f>
-        <v>0</v>
-      </c>
-      <c r="AM49" s="38">
-        <f t="shared" ref="AM49:BF49" si="402">+MIN(AM39:AM47)</f>
-        <v>0</v>
-      </c>
-      <c r="AN49" s="38">
-        <f t="shared" ref="AN49:BF49" si="403">+MAX(AN39:AN47)</f>
-        <v>0</v>
-      </c>
-      <c r="AO49" s="38">
-        <f t="shared" ref="AO49:BF49" si="404">+MIN(AO39:AO47)</f>
-        <v>0</v>
-      </c>
-      <c r="AP49" s="38">
-        <f t="shared" ref="AP49:BF49" si="405">+MAX(AP39:AP47)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="38">
-        <f t="shared" ref="AQ49:BF49" si="406">+MIN(AQ39:AQ47)</f>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="19">
+        <f t="shared" ref="AQ49" si="174">+MIN(AQ39:AQ47)</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="AR49" s="38">
-        <f t="shared" ref="AR49:BF49" si="407">+MAX(AR39:AR47)</f>
+      <c r="AR49" s="19">
+        <f t="shared" ref="AR49" si="175">+MAX(AR39:AR47)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="AS49" s="38">
-        <f t="shared" ref="AS49:BF49" si="408">+MIN(AS39:AS47)</f>
+      <c r="AS49" s="19">
+        <f t="shared" ref="AS49" si="176">+MIN(AS39:AS47)</f>
         <v>0.44</v>
       </c>
-      <c r="AT49" s="38">
-        <f t="shared" ref="AT49:BF49" si="409">+MAX(AT39:AT47)</f>
+      <c r="AT49" s="19">
+        <f t="shared" ref="AT49" si="177">+MAX(AT39:AT47)</f>
         <v>0.121</v>
       </c>
-      <c r="AU49" s="38">
-        <f t="shared" ref="AU49:BF49" si="410">+MIN(AU39:AU47)</f>
+      <c r="AU49" s="19">
+        <f t="shared" ref="AU49" si="178">+MIN(AU39:AU47)</f>
         <v>0.35</v>
       </c>
-      <c r="AV49" s="38">
-        <f t="shared" ref="AV49:BF49" si="411">+MAX(AV39:AV47)</f>
+      <c r="AV49" s="19">
+        <f t="shared" ref="AV49" si="179">+MAX(AV39:AV47)</f>
         <v>0.2</v>
       </c>
-      <c r="AW49" s="38">
-        <f t="shared" ref="AW49:BF49" si="412">+MIN(AW39:AW47)</f>
+      <c r="AW49" s="19">
+        <f t="shared" ref="AW49" si="180">+MIN(AW39:AW47)</f>
         <v>0.13700000000000001</v>
       </c>
-      <c r="AX49" s="38">
-        <f t="shared" ref="AX49:BF49" si="413">+MAX(AX39:AX47)</f>
+      <c r="AX49" s="19">
+        <f t="shared" ref="AX49" si="181">+MAX(AX39:AX47)</f>
         <v>0.45300000000000001</v>
       </c>
-      <c r="AY49" s="38">
-        <f t="shared" ref="AY49:BF49" si="414">+MIN(AY39:AY47)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ49" s="38">
-        <f t="shared" ref="AZ49:BF49" si="415">+MAX(AZ39:AZ47)</f>
-        <v>0</v>
-      </c>
-      <c r="BA49" s="38">
-        <f t="shared" ref="BA49:BF49" si="416">+MIN(BA39:BA47)</f>
-        <v>0</v>
-      </c>
-      <c r="BB49" s="38">
-        <f t="shared" ref="BB49:BF49" si="417">+MAX(BB39:BB47)</f>
-        <v>0</v>
-      </c>
-      <c r="BC49" s="38">
-        <f t="shared" ref="BC49:BF49" si="418">+MIN(BC39:BC47)</f>
-        <v>0</v>
-      </c>
-      <c r="BD49" s="38">
-        <f t="shared" ref="BD49:BF49" si="419">+MAX(BD39:BD47)</f>
-        <v>0</v>
-      </c>
-      <c r="BE49" s="38">
-        <f t="shared" ref="BE49:BF49" si="420">+MIN(BE39:BE47)</f>
+      <c r="AY49" s="19"/>
+      <c r="AZ49" s="19"/>
+      <c r="BA49" s="19"/>
+      <c r="BB49" s="19"/>
+      <c r="BC49" s="19"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="19">
+        <f t="shared" ref="BE49" si="182">+MIN(BE39:BE47)</f>
         <v>0.29299999999999998</v>
       </c>
-      <c r="BF49" s="38">
-        <f t="shared" ref="BF49" si="421">+MAX(BF39:BF47)</f>
+      <c r="BF49" s="19">
+        <f t="shared" ref="BF49" si="183">+MAX(BF39:BF47)</f>
         <v>0.19600000000000001</v>
       </c>
     </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f>MIN(D6:D49)</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="184">MIN(F6:F49)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="185">MIN(H6:H49)</f>
+        <v>0.16</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="186">MIN(J6:J49)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P50">
+        <f t="shared" ref="P50" si="187">MIN(P6:P49)</f>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ref="R50" si="188">MIN(R6:R49)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="T50" si="189">MIN(T6:T49)</f>
+        <v>0.184</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" ref="AD50" si="190">MIN(AD6:AD49)</f>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" ref="AF50" si="191">MIN(AF6:AF49)</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" ref="AH50" si="192">MIN(AH6:AH49)</f>
+        <v>0.111</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" ref="AJ50" si="193">MIN(AJ6:AJ49)</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" ref="AR50" si="194">MIN(AR6:AR49)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" ref="AT50" si="195">MIN(AT6:AT49)</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" ref="AV50" si="196">MIN(AV6:AV49)</f>
+        <v>0.08</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" ref="AX50" si="197">MIN(AX6:AX49)</f>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BF50">
+        <f t="shared" ref="BF50" si="198">MIN(BF6:BF49)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BG50">
+        <f>MIN(C50:BF50)</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>MAX(D6:D49)</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:AK51" si="199">MAX(F6:F49)</f>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:AM51" si="200">MAX(H6:H49)</f>
+        <v>0.436</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:BE51" si="201">MAX(J6:J49)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ref="P51:BE51" si="202">MAX(P6:P49)</f>
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ref="R51:BE51" si="203">MAX(R6:R49)</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="T51">
+        <f t="shared" ref="T51:BE51" si="204">MAX(T6:T49)</f>
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" ref="AD51:BE51" si="205">MAX(AD6:AD49)</f>
+        <v>0.501</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" ref="AF51:BE51" si="206">MAX(AF6:AF49)</f>
+        <v>0.19</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" ref="AH51:BE51" si="207">MAX(AH6:AH49)</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" ref="AJ51:BE51" si="208">MAX(AJ6:AJ49)</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" ref="AR51:BE51" si="209">MAX(AR6:AR49)</f>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" ref="AT51:BE51" si="210">MAX(AT6:AT49)</f>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" ref="AV51:BE51" si="211">MAX(AV6:AV49)</f>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" ref="AX51:BE51" si="212">MAX(AX6:AX49)</f>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="BF51">
+        <f t="shared" ref="BF51" si="213">MAX(BF6:BF49)</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="BG51">
+        <f>MAX(D51:BF51)</f>
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <f>+MIN(D50,R50,AF50,AT50)</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="H54">
+        <f>+MAX(D50,R50,AF50,AT50)</f>
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F56" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <f>+MIN(F50,AH50,T50,AV50)</f>
+        <v>0.08</v>
+      </c>
+      <c r="H56">
+        <f>+MAX(F50,AH50,T50,AV50)</f>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F58" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <f>+MIN(H50,V50,AJ50,AX50)</f>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H58">
+        <f>+MAX(H50,V50,AJ50,AX50)</f>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F60" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <f>+MIN(J50)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H60">
+        <f>+MAX(J50)</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F62" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="F64" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="47">
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="AE2:AR2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Q1:AD1"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="AE1:AR1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="AS1:BF1"/>
     <mergeCell ref="AC3:AD3"/>
@@ -5514,30 +5062,6 @@
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="Q2:AD2"/>
     <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="AE2:AR2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Q1:AD1"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="AE1:AR1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A28:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
